--- a/Jogos_do_Dia/2023-06-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>League</t>
   </si>
@@ -136,6 +136,9 @@
     <t>Brazil Serie A</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>15:30:00</t>
   </si>
   <si>
@@ -160,6 +163,12 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>21:45:00</t>
+  </si>
+  <si>
     <t>Haras El Hodood</t>
   </si>
   <si>
@@ -181,21 +190,30 @@
     <t>River Plate</t>
   </si>
   <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
     <t>Cuiabá</t>
   </si>
   <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
     <t>Melgar</t>
   </si>
   <si>
     <t>Cienciano</t>
   </si>
   <si>
+    <t>Bragantino</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
     <t>Al Ahly</t>
   </si>
   <si>
@@ -217,19 +235,28 @@
     <t>Instituto</t>
   </si>
   <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
     <t>Botafogo</t>
   </si>
   <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>Internacional</t>
-  </si>
-  <si>
     <t>ADT</t>
   </si>
   <si>
     <t>Universitario</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
   </si>
 </sst>
 </file>
@@ -591,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,25 +739,25 @@
         <v>45099</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>12.88</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>5.31</v>
+        <v>5.25</v>
       </c>
       <c r="I2">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="J2">
         <v>1.01</v>
@@ -745,10 +772,10 @@
         <v>3.3</v>
       </c>
       <c r="N2">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O2">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>1.38</v>
@@ -819,64 +846,64 @@
         <v>45099</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -926,16 +953,16 @@
         <v>45099</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>2.2</v>
@@ -1033,16 +1060,16 @@
         <v>45099</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>6.75</v>
@@ -1117,7 +1144,7 @@
         <v>1.3</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF5">
         <v>1.3</v>
@@ -1140,16 +1167,16 @@
         <v>45099</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>1.72</v>
@@ -1247,16 +1274,16 @@
         <v>45099</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G7">
         <v>1.69</v>
@@ -1268,16 +1295,16 @@
         <v>4.96</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N7">
         <v>1.95</v>
@@ -1286,10 +1313,10 @@
         <v>1.92</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7">
         <v>1.91</v>
@@ -1298,13 +1325,13 @@
         <v>1.91</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W7">
         <v>2.2</v>
@@ -1322,28 +1349,28 @@
         <v>3.21</v>
       </c>
       <c r="AB7">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AC7">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD7">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG7">
         <v>1.83</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1354,16 +1381,16 @@
         <v>45099</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <v>1.25</v>
@@ -1461,49 +1488,49 @@
         <v>45099</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G9">
-        <v>3.01</v>
+        <v>1.79</v>
       </c>
       <c r="H9">
-        <v>3.16</v>
+        <v>3.57</v>
       </c>
       <c r="I9">
-        <v>2.61</v>
+        <v>4.93</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1512,52 +1539,52 @@
         <v>1.8</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="X9">
+        <v>0.2</v>
+      </c>
+      <c r="Y9">
+        <v>1.97</v>
+      </c>
+      <c r="Z9">
+        <v>1.53</v>
+      </c>
+      <c r="AA9">
+        <v>3.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.54</v>
+      </c>
+      <c r="AC9">
+        <v>8.5</v>
+      </c>
+      <c r="AD9">
+        <v>2.9</v>
+      </c>
+      <c r="AE9">
+        <v>1.11</v>
+      </c>
+      <c r="AF9">
+        <v>1.28</v>
+      </c>
+      <c r="AG9">
         <v>1.5</v>
       </c>
-      <c r="Y9">
-        <v>1.37</v>
-      </c>
-      <c r="Z9">
-        <v>1.3</v>
-      </c>
-      <c r="AA9">
-        <v>2.67</v>
-      </c>
-      <c r="AB9">
-        <v>2.05</v>
-      </c>
-      <c r="AC9">
-        <v>7.5</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>2.1</v>
-      </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1568,103 +1595,103 @@
         <v>45099</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G10">
-        <v>1.79</v>
+        <v>2.97</v>
       </c>
       <c r="H10">
-        <v>3.57</v>
+        <v>3.15</v>
       </c>
       <c r="I10">
-        <v>4.93</v>
+        <v>2.6</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W10">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="X10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Y10">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="Z10">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AA10">
-        <v>3.5</v>
+        <v>3.26</v>
       </c>
       <c r="AB10">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="AC10">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD10">
-        <v>2.7</v>
+        <v>2.14</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1675,103 +1702,103 @@
         <v>45099</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G11">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="H11">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
       <c r="I11">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O11">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
+        <v>1.53</v>
+      </c>
+      <c r="U11">
+        <v>1.35</v>
+      </c>
+      <c r="V11">
+        <v>1.37</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <v>1.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.37</v>
+      </c>
+      <c r="Z11">
+        <v>1.3</v>
+      </c>
+      <c r="AA11">
+        <v>2.67</v>
+      </c>
+      <c r="AB11">
+        <v>2.05</v>
+      </c>
+      <c r="AC11">
+        <v>7.5</v>
+      </c>
+      <c r="AD11">
         <v>2</v>
       </c>
-      <c r="S11">
-        <v>1.75</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0.6</v>
-      </c>
-      <c r="X11">
-        <v>0.4</v>
-      </c>
-      <c r="Y11">
-        <v>1.74</v>
-      </c>
-      <c r="Z11">
-        <v>1.52</v>
-      </c>
-      <c r="AA11">
-        <v>3.26</v>
-      </c>
-      <c r="AB11">
-        <v>2.02</v>
-      </c>
-      <c r="AC11">
-        <v>8</v>
-      </c>
-      <c r="AD11">
-        <v>2.02</v>
-      </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1782,16 +1809,16 @@
         <v>45099</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1.4</v>
@@ -1866,7 +1893,7 @@
         <v>4.33</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF12">
         <v>1.29</v>
@@ -1889,25 +1916,25 @@
         <v>45099</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G13">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="H13">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J13">
         <v>1.04</v>
@@ -1986,6 +2013,327 @@
       </c>
       <c r="AI13">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45099</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>2.93</v>
+      </c>
+      <c r="H14">
+        <v>3.47</v>
+      </c>
+      <c r="I14">
+        <v>2.45</v>
+      </c>
+      <c r="J14">
+        <v>1.04</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>1.28</v>
+      </c>
+      <c r="M14">
+        <v>3.6</v>
+      </c>
+      <c r="N14">
+        <v>1.92</v>
+      </c>
+      <c r="O14">
+        <v>1.93</v>
+      </c>
+      <c r="P14">
+        <v>1.4</v>
+      </c>
+      <c r="Q14">
+        <v>2.75</v>
+      </c>
+      <c r="R14">
+        <v>1.75</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1.63</v>
+      </c>
+      <c r="U14">
+        <v>1.3</v>
+      </c>
+      <c r="V14">
+        <v>1.35</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>1.5</v>
+      </c>
+      <c r="Y14">
+        <v>1.85</v>
+      </c>
+      <c r="Z14">
+        <v>1.61</v>
+      </c>
+      <c r="AA14">
+        <v>3.46</v>
+      </c>
+      <c r="AB14">
+        <v>2.1</v>
+      </c>
+      <c r="AC14">
+        <v>8</v>
+      </c>
+      <c r="AD14">
+        <v>1.93</v>
+      </c>
+      <c r="AE14">
+        <v>1.19</v>
+      </c>
+      <c r="AF14">
+        <v>1.3</v>
+      </c>
+      <c r="AG14">
+        <v>1.54</v>
+      </c>
+      <c r="AH14">
+        <v>1.9</v>
+      </c>
+      <c r="AI14">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45099</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>1.63</v>
+      </c>
+      <c r="H15">
+        <v>3.58</v>
+      </c>
+      <c r="I15">
+        <v>5.79</v>
+      </c>
+      <c r="J15">
+        <v>1.07</v>
+      </c>
+      <c r="K15">
+        <v>7.5</v>
+      </c>
+      <c r="L15">
+        <v>1.38</v>
+      </c>
+      <c r="M15">
+        <v>2.9</v>
+      </c>
+      <c r="N15">
+        <v>2.15</v>
+      </c>
+      <c r="O15">
+        <v>1.61</v>
+      </c>
+      <c r="P15">
+        <v>1.44</v>
+      </c>
+      <c r="Q15">
+        <v>2.63</v>
+      </c>
+      <c r="R15">
+        <v>2.2</v>
+      </c>
+      <c r="S15">
+        <v>1.62</v>
+      </c>
+      <c r="T15">
+        <v>1.14</v>
+      </c>
+      <c r="U15">
+        <v>1.25</v>
+      </c>
+      <c r="V15">
+        <v>2.25</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>1.5</v>
+      </c>
+      <c r="Y15">
+        <v>1.62</v>
+      </c>
+      <c r="Z15">
+        <v>1.44</v>
+      </c>
+      <c r="AA15">
+        <v>3.06</v>
+      </c>
+      <c r="AB15">
+        <v>1.3</v>
+      </c>
+      <c r="AC15">
+        <v>9</v>
+      </c>
+      <c r="AD15">
+        <v>4.5</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1.27</v>
+      </c>
+      <c r="AG15">
+        <v>1.49</v>
+      </c>
+      <c r="AH15">
+        <v>1.85</v>
+      </c>
+      <c r="AI15">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45099</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>2.7</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>2.8</v>
+      </c>
+      <c r="J16">
+        <v>1.11</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>1.5</v>
+      </c>
+      <c r="M16">
+        <v>2.5</v>
+      </c>
+      <c r="N16">
+        <v>2.5</v>
+      </c>
+      <c r="O16">
+        <v>1.5</v>
+      </c>
+      <c r="P16">
+        <v>1.53</v>
+      </c>
+      <c r="Q16">
+        <v>2.38</v>
+      </c>
+      <c r="R16">
+        <v>2.1</v>
+      </c>
+      <c r="S16">
+        <v>1.68</v>
+      </c>
+      <c r="T16">
+        <v>1.45</v>
+      </c>
+      <c r="U16">
+        <v>1.33</v>
+      </c>
+      <c r="V16">
+        <v>1.47</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>1.11</v>
+      </c>
+      <c r="Y16">
+        <v>1.58</v>
+      </c>
+      <c r="Z16">
+        <v>1.16</v>
+      </c>
+      <c r="AA16">
+        <v>2.74</v>
+      </c>
+      <c r="AB16">
+        <v>1.85</v>
+      </c>
+      <c r="AC16">
+        <v>7.5</v>
+      </c>
+      <c r="AD16">
+        <v>2.29</v>
+      </c>
+      <c r="AE16">
+        <v>1.36</v>
+      </c>
+      <c r="AF16">
+        <v>1.66</v>
+      </c>
+      <c r="AG16">
+        <v>2.12</v>
+      </c>
+      <c r="AH16">
+        <v>2.88</v>
+      </c>
+      <c r="AI16">
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-06-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>League</t>
   </si>
@@ -121,6 +121,9 @@
     <t>Odds_Corners_Over115</t>
   </si>
   <si>
+    <t>USA MLS</t>
+  </si>
+  <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>Brazil Serie B</t>
   </si>
   <si>
+    <t>00:07:00</t>
+  </si>
+  <si>
     <t>15:30:00</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t>21:45:00</t>
   </si>
   <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t>Haras El Hodood</t>
   </si>
   <si>
@@ -190,30 +199,33 @@
     <t>River Plate</t>
   </si>
   <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Cuiabá</t>
+  </si>
+  <si>
+    <t>Melgar</t>
+  </si>
+  <si>
     <t>Vasco da Gama</t>
   </si>
   <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Cuiabá</t>
-  </si>
-  <si>
-    <t>Melgar</t>
-  </si>
-  <si>
     <t>Cienciano</t>
   </si>
   <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
     <t>Bragantino</t>
   </si>
   <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
     <t>Godoy Cruz</t>
   </si>
   <si>
+    <t>FC Dallas</t>
+  </si>
+  <si>
     <t>Al Ahly</t>
   </si>
   <si>
@@ -235,25 +247,25 @@
     <t>Instituto</t>
   </si>
   <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
     <t>Goiás</t>
   </si>
   <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Botafogo</t>
-  </si>
-  <si>
-    <t>ADT</t>
-  </si>
-  <si>
     <t>Universitario</t>
   </si>
   <si>
+    <t>Juventude</t>
+  </si>
+  <si>
     <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Juventude</t>
   </si>
   <si>
     <t>Boca Juniors</t>
@@ -618,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,103 +751,103 @@
         <v>45099</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
+        <v>3.7</v>
+      </c>
+      <c r="J2">
+        <v>1.04</v>
+      </c>
+      <c r="K2">
+        <v>10.5</v>
+      </c>
+      <c r="L2">
         <v>1.25</v>
       </c>
-      <c r="J2">
-        <v>1.01</v>
-      </c>
-      <c r="K2">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L2">
+      <c r="M2">
+        <v>3.65</v>
+      </c>
+      <c r="N2">
+        <v>1.97</v>
+      </c>
+      <c r="O2">
+        <v>1.74</v>
+      </c>
+      <c r="P2">
         <v>1.3</v>
       </c>
-      <c r="M2">
-        <v>3.3</v>
-      </c>
-      <c r="N2">
-        <v>1.8</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>1.38</v>
-      </c>
       <c r="Q2">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="S2">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="U2">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="V2">
-        <v>1.03</v>
+        <v>1.81</v>
       </c>
       <c r="W2">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="X2">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="Y2">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="Z2">
-        <v>1.94</v>
+        <v>1.31</v>
       </c>
       <c r="AA2">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="AB2">
-        <v>4.55</v>
+        <v>1.53</v>
       </c>
       <c r="AC2">
-        <v>10.25</v>
+        <v>7.5</v>
       </c>
       <c r="AD2">
-        <v>1.27</v>
+        <v>3.05</v>
       </c>
       <c r="AE2">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AF2">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AG2">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="AH2">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AI2">
-        <v>3.74</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -846,103 +858,103 @@
         <v>45099</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>2.25</v>
+        <v>10.5</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="I3">
-        <v>2.85</v>
+        <v>1.23</v>
       </c>
       <c r="J3">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K3">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M3">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="Q3">
-        <v>2.6</v>
+        <v>2.99</v>
       </c>
       <c r="R3">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="S3">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>1.15</v>
+      </c>
+      <c r="V3">
+        <v>1.03</v>
+      </c>
+      <c r="W3">
+        <v>0.93</v>
+      </c>
+      <c r="X3">
+        <v>2.8</v>
+      </c>
+      <c r="Y3">
+        <v>1.06</v>
+      </c>
+      <c r="Z3">
+        <v>1.94</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>4.55</v>
+      </c>
+      <c r="AC3">
+        <v>10.25</v>
+      </c>
+      <c r="AD3">
+        <v>1.27</v>
+      </c>
+      <c r="AE3">
         <v>1.33</v>
       </c>
-      <c r="U3">
-        <v>1.31</v>
-      </c>
-      <c r="V3">
-        <v>1.5</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1.33</v>
-      </c>
-      <c r="Y3">
-        <v>1.66</v>
-      </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>1.61</v>
       </c>
-      <c r="AA3">
-        <v>3.27</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -953,103 +965,103 @@
         <v>45099</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G4">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="H4">
         <v>3.1</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="J4">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="L4">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="M4">
-        <v>2.55</v>
+        <v>2.84</v>
       </c>
       <c r="N4">
+        <v>2.15</v>
+      </c>
+      <c r="O4">
+        <v>1.57</v>
+      </c>
+      <c r="P4">
+        <v>1.46</v>
+      </c>
+      <c r="Q4">
         <v>2.6</v>
       </c>
-      <c r="O4">
-        <v>1.47</v>
-      </c>
-      <c r="P4">
-        <v>1.53</v>
-      </c>
-      <c r="Q4">
-        <v>2.3</v>
-      </c>
       <c r="R4">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="S4">
+        <v>1.93</v>
+      </c>
+      <c r="T4">
+        <v>1.33</v>
+      </c>
+      <c r="U4">
+        <v>1.31</v>
+      </c>
+      <c r="V4">
+        <v>1.5</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1.33</v>
+      </c>
+      <c r="Y4">
+        <v>1.66</v>
+      </c>
+      <c r="Z4">
         <v>1.61</v>
       </c>
-      <c r="T4">
-        <v>1.31</v>
-      </c>
-      <c r="U4">
-        <v>1.35</v>
-      </c>
-      <c r="V4">
-        <v>1.61</v>
-      </c>
-      <c r="W4">
-        <v>1.33</v>
-      </c>
-      <c r="X4">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y4">
-        <v>1.68</v>
-      </c>
-      <c r="Z4">
-        <v>1.1</v>
-      </c>
       <c r="AA4">
-        <v>2.78</v>
+        <v>3.27</v>
       </c>
       <c r="AB4">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="AH4">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1060,560 +1072,560 @@
         <v>45099</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G5">
-        <v>6.75</v>
+        <v>2.2</v>
       </c>
       <c r="H5">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="I5">
-        <v>1.43</v>
+        <v>3.5</v>
       </c>
       <c r="J5">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N5">
-        <v>1.86</v>
+        <v>2.6</v>
       </c>
       <c r="O5">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="P5">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="Q5">
-        <v>2.91</v>
+        <v>2.3</v>
       </c>
       <c r="R5">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S5">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="T5">
-        <v>2.67</v>
+        <v>1.31</v>
       </c>
       <c r="U5">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="V5">
-        <v>1.07</v>
+        <v>1.61</v>
       </c>
       <c r="W5">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="X5">
-        <v>1.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y5">
-        <v>1.26</v>
+        <v>1.68</v>
       </c>
       <c r="Z5">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="AA5">
-        <v>2.67</v>
+        <v>2.78</v>
       </c>
       <c r="AB5">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="AC5">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AD5">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="AE5">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AF5">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AG5">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="AH5">
-        <v>1.96</v>
+        <v>2.95</v>
       </c>
       <c r="AI5">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
         <v>45099</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G6">
-        <v>1.72</v>
+        <v>6.1</v>
       </c>
       <c r="H6">
+        <v>4.35</v>
+      </c>
+      <c r="I6">
+        <v>1.41</v>
+      </c>
+      <c r="J6">
+        <v>1.03</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>1.28</v>
+      </c>
+      <c r="M6">
         <v>3.6</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>1.06</v>
-      </c>
-      <c r="K6">
-        <v>9.5</v>
-      </c>
-      <c r="L6">
-        <v>1.36</v>
-      </c>
-      <c r="M6">
-        <v>3.1</v>
-      </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="P6">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q6">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S6">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="T6">
-        <v>1.17</v>
+        <v>2.67</v>
       </c>
       <c r="U6">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="V6">
-        <v>2.15</v>
+        <v>1.07</v>
       </c>
       <c r="W6">
-        <v>1.7</v>
+        <v>0.89</v>
       </c>
       <c r="X6">
-        <v>0.78</v>
+        <v>1.56</v>
       </c>
       <c r="Y6">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="Z6">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AA6">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="AB6">
-        <v>1.41</v>
+        <v>4</v>
       </c>
       <c r="AC6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD6">
-        <v>3.58</v>
+        <v>1.3</v>
       </c>
       <c r="AE6">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AF6">
+        <v>1.3</v>
+      </c>
+      <c r="AG6">
         <v>1.53</v>
       </c>
-      <c r="AG6">
-        <v>1.98</v>
-      </c>
       <c r="AH6">
-        <v>2.55</v>
+        <v>1.96</v>
       </c>
       <c r="AI6">
-        <v>3.5</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
         <v>45099</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G7">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="H7">
-        <v>4.04</v>
+        <v>3.6</v>
       </c>
       <c r="I7">
-        <v>4.96</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="K7">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L7">
+        <v>1.36</v>
+      </c>
+      <c r="M7">
+        <v>3.1</v>
+      </c>
+      <c r="N7">
+        <v>2.1</v>
+      </c>
+      <c r="O7">
+        <v>1.72</v>
+      </c>
+      <c r="P7">
+        <v>1.42</v>
+      </c>
+      <c r="Q7">
+        <v>2.65</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1.75</v>
+      </c>
+      <c r="T7">
+        <v>1.17</v>
+      </c>
+      <c r="U7">
         <v>1.22</v>
       </c>
-      <c r="M7">
-        <v>3.7</v>
-      </c>
-      <c r="N7">
-        <v>1.95</v>
-      </c>
-      <c r="O7">
-        <v>1.92</v>
-      </c>
-      <c r="P7">
-        <v>1.36</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>1.91</v>
-      </c>
-      <c r="S7">
-        <v>1.91</v>
-      </c>
-      <c r="T7">
-        <v>1.18</v>
-      </c>
-      <c r="U7">
-        <v>1.2</v>
-      </c>
       <c r="V7">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="W7">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="X7">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="Y7">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="Z7">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AA7">
-        <v>3.21</v>
+        <v>2.85</v>
       </c>
       <c r="AB7">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AC7">
         <v>9</v>
       </c>
       <c r="AD7">
-        <v>2.95</v>
+        <v>3.58</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF7">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AG7">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AH7">
-        <v>1.76</v>
+        <v>2.55</v>
       </c>
       <c r="AI7">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <v>45099</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8">
+        <v>1.64</v>
+      </c>
+      <c r="H8">
+        <v>4.05</v>
+      </c>
+      <c r="I8">
+        <v>5.1</v>
+      </c>
+      <c r="J8">
+        <v>1.01</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>1.22</v>
+      </c>
+      <c r="M8">
+        <v>3.7</v>
+      </c>
+      <c r="N8">
+        <v>1.96</v>
+      </c>
+      <c r="O8">
+        <v>1.92</v>
+      </c>
+      <c r="P8">
+        <v>1.36</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>1.91</v>
+      </c>
+      <c r="S8">
+        <v>1.91</v>
+      </c>
+      <c r="T8">
+        <v>1.18</v>
+      </c>
+      <c r="U8">
+        <v>1.2</v>
+      </c>
+      <c r="V8">
+        <v>2.2</v>
+      </c>
+      <c r="W8">
+        <v>2.2</v>
+      </c>
+      <c r="X8">
+        <v>0.25</v>
+      </c>
+      <c r="Y8">
+        <v>1.79</v>
+      </c>
+      <c r="Z8">
+        <v>1.42</v>
+      </c>
+      <c r="AA8">
+        <v>3.21</v>
+      </c>
+      <c r="AB8">
+        <v>1.47</v>
+      </c>
+      <c r="AC8">
+        <v>8.5</v>
+      </c>
+      <c r="AD8">
+        <v>3.2</v>
+      </c>
+      <c r="AE8">
+        <v>1.13</v>
+      </c>
+      <c r="AF8">
         <v>1.25</v>
       </c>
-      <c r="H8">
-        <v>5.3</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>1.03</v>
-      </c>
-      <c r="K8">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <v>1.2</v>
-      </c>
-      <c r="M8">
-        <v>3.9</v>
-      </c>
-      <c r="N8">
-        <v>1.7</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>1.32</v>
-      </c>
-      <c r="Q8">
-        <v>3.1</v>
-      </c>
-      <c r="R8">
-        <v>2.1</v>
-      </c>
-      <c r="S8">
-        <v>1.65</v>
-      </c>
-      <c r="T8">
-        <v>1.04</v>
-      </c>
-      <c r="U8">
-        <v>1.15</v>
-      </c>
-      <c r="V8">
-        <v>3</v>
-      </c>
-      <c r="W8">
-        <v>2.67</v>
-      </c>
-      <c r="X8">
-        <v>0.78</v>
-      </c>
-      <c r="Y8">
-        <v>1.73</v>
-      </c>
-      <c r="Z8">
-        <v>1.27</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
-      </c>
-      <c r="AB8">
-        <v>1.21</v>
-      </c>
-      <c r="AC8">
-        <v>10</v>
-      </c>
-      <c r="AD8">
-        <v>5.23</v>
-      </c>
-      <c r="AE8">
-        <v>1.27</v>
-      </c>
-      <c r="AF8">
-        <v>1.5</v>
-      </c>
       <c r="AG8">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AH8">
-        <v>2.45</v>
+        <v>1.76</v>
       </c>
       <c r="AI8">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>45099</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G9">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="H9">
-        <v>3.57</v>
+        <v>5.3</v>
       </c>
       <c r="I9">
-        <v>4.93</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K9">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="M9">
+        <v>3.9</v>
+      </c>
+      <c r="N9">
+        <v>1.7</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1.32</v>
+      </c>
+      <c r="Q9">
         <v>3.1</v>
       </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>1.72</v>
-      </c>
-      <c r="P9">
-        <v>1.44</v>
-      </c>
-      <c r="Q9">
-        <v>2.63</v>
-      </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="T9">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="U9">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>0.25</v>
+        <v>2.67</v>
       </c>
       <c r="X9">
-        <v>0.2</v>
+        <v>0.78</v>
       </c>
       <c r="Y9">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="Z9">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AA9">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="AC9">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD9">
-        <v>2.9</v>
+        <v>5.23</v>
       </c>
       <c r="AE9">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AF9">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AG9">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AH9">
-        <v>1.84</v>
+        <v>2.45</v>
       </c>
       <c r="AI9">
-        <v>2.28</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>45099</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G10">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
       <c r="H10">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I10">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="J10">
         <v>1.09</v>
@@ -1628,10 +1640,10 @@
         <v>2.75</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O10">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="P10">
         <v>1.53</v>
@@ -1640,10 +1652,10 @@
         <v>2.38</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T10">
         <v>1.52</v>
@@ -1670,13 +1682,13 @@
         <v>3.26</v>
       </c>
       <c r="AB10">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="AC10">
         <v>8</v>
       </c>
       <c r="AD10">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AE10">
         <v>1.19</v>
@@ -1696,31 +1708,31 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
         <v>45099</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G11">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="H11">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="I11">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="J11">
         <v>1.09</v>
@@ -1735,10 +1747,10 @@
         <v>2.8</v>
       </c>
       <c r="N11">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="O11">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="P11">
         <v>1.5</v>
@@ -1777,7 +1789,7 @@
         <v>2.67</v>
       </c>
       <c r="AB11">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="AC11">
         <v>7.5</v>
@@ -1803,31 +1815,31 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>45099</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G12">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="J12">
         <v>1.03</v>
@@ -1842,7 +1854,7 @@
         <v>3.6</v>
       </c>
       <c r="N12">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="O12">
         <v>1.92</v>
@@ -1910,109 +1922,109 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>45099</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G13">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="H13">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I13">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="J13">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="L13">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M13">
+        <v>3.1</v>
+      </c>
+      <c r="N13">
+        <v>2.04</v>
+      </c>
+      <c r="O13">
+        <v>1.78</v>
+      </c>
+      <c r="P13">
+        <v>1.44</v>
+      </c>
+      <c r="Q13">
+        <v>2.63</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1.75</v>
+      </c>
+      <c r="T13">
+        <v>1.2</v>
+      </c>
+      <c r="U13">
+        <v>1.25</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>0.25</v>
+      </c>
+      <c r="X13">
+        <v>0.2</v>
+      </c>
+      <c r="Y13">
+        <v>1.97</v>
+      </c>
+      <c r="Z13">
+        <v>1.53</v>
+      </c>
+      <c r="AA13">
         <v>3.5</v>
       </c>
-      <c r="N13">
-        <v>1.87</v>
-      </c>
-      <c r="O13">
-        <v>1.86</v>
-      </c>
-      <c r="P13">
-        <v>1.38</v>
-      </c>
-      <c r="Q13">
-        <v>2.91</v>
-      </c>
-      <c r="R13">
-        <v>1.7</v>
-      </c>
-      <c r="S13">
-        <v>2.1</v>
-      </c>
-      <c r="T13">
-        <v>1.45</v>
-      </c>
-      <c r="U13">
+      <c r="AB13">
+        <v>1.48</v>
+      </c>
+      <c r="AC13">
+        <v>8.5</v>
+      </c>
+      <c r="AD13">
+        <v>3.15</v>
+      </c>
+      <c r="AE13">
+        <v>1.11</v>
+      </c>
+      <c r="AF13">
         <v>1.28</v>
       </c>
-      <c r="V13">
-        <v>1.45</v>
-      </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <v>1.11</v>
-      </c>
-      <c r="Y13">
-        <v>1.47</v>
-      </c>
-      <c r="Z13">
-        <v>1.31</v>
-      </c>
-      <c r="AA13">
-        <v>2.78</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2023,25 +2035,25 @@
         <v>45099</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G14">
-        <v>2.93</v>
+        <v>2.02</v>
       </c>
       <c r="H14">
-        <v>3.47</v>
+        <v>3.35</v>
       </c>
       <c r="I14">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2050,105 +2062,105 @@
         <v>12</v>
       </c>
       <c r="L14">
+        <v>1.3</v>
+      </c>
+      <c r="M14">
+        <v>3.5</v>
+      </c>
+      <c r="N14">
+        <v>1.8</v>
+      </c>
+      <c r="O14">
+        <v>1.8</v>
+      </c>
+      <c r="P14">
+        <v>1.38</v>
+      </c>
+      <c r="Q14">
+        <v>2.91</v>
+      </c>
+      <c r="R14">
+        <v>1.7</v>
+      </c>
+      <c r="S14">
+        <v>2.1</v>
+      </c>
+      <c r="T14">
+        <v>1.45</v>
+      </c>
+      <c r="U14">
         <v>1.28</v>
       </c>
-      <c r="M14">
-        <v>3.6</v>
-      </c>
-      <c r="N14">
-        <v>1.92</v>
-      </c>
-      <c r="O14">
-        <v>1.93</v>
-      </c>
-      <c r="P14">
-        <v>1.4</v>
-      </c>
-      <c r="Q14">
-        <v>2.75</v>
-      </c>
-      <c r="R14">
-        <v>1.75</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>1.63</v>
-      </c>
-      <c r="U14">
-        <v>1.3</v>
-      </c>
       <c r="V14">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="W14">
         <v>2</v>
       </c>
       <c r="X14">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="Y14">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="Z14">
-        <v>1.61</v>
+        <v>1.31</v>
       </c>
       <c r="AA14">
-        <v>3.46</v>
+        <v>2.78</v>
       </c>
       <c r="AB14">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AC14">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD14">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="AE14">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AG14">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="AH14">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AI14">
-        <v>2.38</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>45099</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G15">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H15">
-        <v>3.58</v>
+        <v>3.65</v>
       </c>
       <c r="I15">
-        <v>5.79</v>
+        <v>5.3</v>
       </c>
       <c r="J15">
         <v>1.07</v>
@@ -2163,10 +2175,10 @@
         <v>2.9</v>
       </c>
       <c r="N15">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O15">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P15">
         <v>1.44</v>
@@ -2214,7 +2226,7 @@
         <v>4.5</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF15">
         <v>1.27</v>
@@ -2231,108 +2243,215 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2">
         <v>45099</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G16">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>2.8</v>
+        <v>2.19</v>
       </c>
       <c r="J16">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L16">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N16">
-        <v>2.5</v>
+        <v>1.97</v>
       </c>
       <c r="O16">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="P16">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R16">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="S16">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="T16">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="U16">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V16">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="W16">
         <v>2</v>
       </c>
       <c r="X16">
+        <v>1.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.85</v>
+      </c>
+      <c r="Z16">
+        <v>1.61</v>
+      </c>
+      <c r="AA16">
+        <v>3.46</v>
+      </c>
+      <c r="AB16">
+        <v>1.9</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>2.15</v>
+      </c>
+      <c r="AE16">
+        <v>1.19</v>
+      </c>
+      <c r="AF16">
+        <v>1.3</v>
+      </c>
+      <c r="AG16">
+        <v>1.54</v>
+      </c>
+      <c r="AH16">
+        <v>1.9</v>
+      </c>
+      <c r="AI16">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45099</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17">
+        <v>2.7</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2.8</v>
+      </c>
+      <c r="J17">
         <v>1.11</v>
       </c>
-      <c r="Y16">
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>1.5</v>
+      </c>
+      <c r="M17">
+        <v>2.5</v>
+      </c>
+      <c r="N17">
+        <v>2.5</v>
+      </c>
+      <c r="O17">
+        <v>1.5</v>
+      </c>
+      <c r="P17">
+        <v>1.53</v>
+      </c>
+      <c r="Q17">
+        <v>2.38</v>
+      </c>
+      <c r="R17">
+        <v>2.1</v>
+      </c>
+      <c r="S17">
+        <v>1.68</v>
+      </c>
+      <c r="T17">
+        <v>1.45</v>
+      </c>
+      <c r="U17">
+        <v>1.33</v>
+      </c>
+      <c r="V17">
+        <v>1.47</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>1.11</v>
+      </c>
+      <c r="Y17">
         <v>1.58</v>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <v>1.16</v>
       </c>
-      <c r="AA16">
+      <c r="AA17">
         <v>2.74</v>
       </c>
-      <c r="AB16">
+      <c r="AB17">
         <v>1.85</v>
       </c>
-      <c r="AC16">
+      <c r="AC17">
         <v>7.5</v>
       </c>
-      <c r="AD16">
+      <c r="AD17">
         <v>2.29</v>
       </c>
-      <c r="AE16">
+      <c r="AE17">
         <v>1.36</v>
       </c>
-      <c r="AF16">
+      <c r="AF17">
         <v>1.66</v>
       </c>
-      <c r="AG16">
+      <c r="AG17">
         <v>2.12</v>
       </c>
-      <c r="AH16">
+      <c r="AH17">
         <v>2.88</v>
       </c>
-      <c r="AI16">
+      <c r="AI17">
         <v>4.1</v>
       </c>
     </row>
